--- a/data/trans_dic/P43B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Provincia-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8267450163795039</v>
+        <v>0.8211872868546994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7424821597650405</v>
+        <v>0.7479976620172242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7973754955712432</v>
+        <v>0.7988028680093907</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9388572361630928</v>
+        <v>0.9385858391901467</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8760698062411894</v>
+        <v>0.8777456172862977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8895292789093449</v>
+        <v>0.8890089552763216</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8087721953756911</v>
+        <v>0.8099414444015184</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.882848543478179</v>
+        <v>0.8861288979025709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8128904209455247</v>
+        <v>0.8144197468024506</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.91398761160771</v>
+        <v>0.9137604285842352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9510804718977895</v>
+        <v>0.9549050794504407</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8879923504712977</v>
+        <v>0.8899048331451742</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.9244942963964946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9052915420979418</v>
+        <v>0.9052915420979417</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7720623956695852</v>
+        <v>0.7748044841046464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8729789915557989</v>
+        <v>0.8787394380438998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8596577066132617</v>
+        <v>0.8620614969077443</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9044623422007123</v>
+        <v>0.904649658132041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9582313250440837</v>
+        <v>0.9560950874902608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9430349505815159</v>
+        <v>0.9395021529722066</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8843329463779501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7683273439901643</v>
+        <v>0.7683273439901646</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7241237213282791</v>
+        <v>0.7341442162274572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8273720187875023</v>
+        <v>0.8262077920653145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7173365848706841</v>
+        <v>0.7165503691610811</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8488525753758909</v>
+        <v>0.8534091853824979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9291527562064006</v>
+        <v>0.9250463684651743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.820144491206927</v>
+        <v>0.8196771775125267</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8378858387449633</v>
+        <v>0.849460670447356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8416040693703939</v>
+        <v>0.8360236034016499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8210810124875935</v>
+        <v>0.827089028918065</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9567649778790616</v>
+        <v>0.9570587927125841</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.955196195078798</v>
+        <v>0.9570951502489126</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9062917499938959</v>
+        <v>0.9078653040925995</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8649304362948107</v>
+        <v>0.8660146255896447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8321727101063368</v>
+        <v>0.8306838644730932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8502095113118602</v>
+        <v>0.8541406661563223</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9715380290180827</v>
+        <v>0.9771749768556347</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9410338238615981</v>
+        <v>0.9430041990792677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.938632186120111</v>
+        <v>0.9361435671694726</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.814879869931724</v>
+        <v>0.8180725384054252</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8016549746652568</v>
+        <v>0.8030152702397423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6098485286806727</v>
+        <v>0.6154208719206554</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8958140486862058</v>
+        <v>0.8973678863609533</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.887844835767137</v>
+        <v>0.8906374266815482</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7002903340521633</v>
+        <v>0.7037544528423976</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7831064487172048</v>
+        <v>0.7814995235248148</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7973813759911041</v>
+        <v>0.7987028024209382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8492107293261872</v>
+        <v>0.8445127831981076</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8648597427599136</v>
+        <v>0.8645941462347114</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8776981528914599</v>
+        <v>0.8773991197039697</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9201338550124828</v>
+        <v>0.9191199251385173</v>
       </c>
     </row>
     <row r="28">
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
     </row>
     <row r="30">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>118635</v>
+        <v>117838</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>104709</v>
+        <v>105487</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>94692</v>
+        <v>94862</v>
       </c>
     </row>
     <row r="7">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>134723</v>
+        <v>134684</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>123549</v>
+        <v>123785</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105636</v>
+        <v>105574</v>
       </c>
     </row>
     <row r="8">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>171444</v>
+        <v>171692</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>225803</v>
+        <v>226642</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>187069</v>
+        <v>187421</v>
       </c>
     </row>
     <row r="11">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>193748</v>
+        <v>193700</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>243254</v>
+        <v>244232</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>204352</v>
+        <v>204792</v>
       </c>
     </row>
     <row r="12">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>117889</v>
+        <v>118308</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>158626</v>
+        <v>159673</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>118511</v>
+        <v>118842</v>
       </c>
     </row>
     <row r="15">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>138106</v>
+        <v>138135</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>174117</v>
+        <v>173729</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>130005</v>
+        <v>129518</v>
       </c>
     </row>
     <row r="16">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>135550</v>
+        <v>137426</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>167151</v>
+        <v>166915</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119596</v>
+        <v>119465</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>158898</v>
+        <v>159751</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>187713</v>
+        <v>186883</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>136736</v>
+        <v>136658</v>
       </c>
     </row>
     <row r="20">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87046</v>
+        <v>88249</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>90991</v>
+        <v>90388</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98025</v>
+        <v>98742</v>
       </c>
     </row>
     <row r="23">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99396</v>
+        <v>99427</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>103272</v>
+        <v>103477</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108198</v>
+        <v>108385</v>
       </c>
     </row>
     <row r="24">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>116762</v>
+        <v>116909</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>111724</v>
+        <v>111524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>98054</v>
+        <v>98507</v>
       </c>
     </row>
     <row r="27">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>131154</v>
+        <v>131915</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>126339</v>
+        <v>126604</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>108252</v>
+        <v>107965</v>
       </c>
     </row>
     <row r="28">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>282446</v>
+        <v>283553</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>228896</v>
+        <v>229284</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>200043</v>
+        <v>201870</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>310499</v>
+        <v>311038</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>253505</v>
+        <v>254303</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>229709</v>
+        <v>230846</v>
       </c>
     </row>
     <row r="32">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>277809</v>
+        <v>277239</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>305065</v>
+        <v>305570</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>211645</v>
+        <v>210474</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>306812</v>
+        <v>306717</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>335792</v>
+        <v>335678</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>229320</v>
+        <v>229068</v>
       </c>
     </row>
     <row r="36">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
     </row>
     <row r="39">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
     </row>
     <row r="40">
